--- a/src/Pickles/MIL_pickles/Output/AN160_TestScript_Web_Labelling_Validation_UR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN160_TestScript_Web_Labelling_Validation_UR.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <x:si>
     <x:t>ControButtonToolTips</x:t>
   </x:si>
@@ -131,6 +131,9 @@
   </x:si>
   <x:si>
     <x:t>the information includes the manufacturer details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>the information includes the CE representative details</x:t>
   </x:si>
   <x:si>
     <x:t>the information includes the date of manufacture</x:t>
@@ -559,7 +562,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -804,7 +807,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D16"/>
+  <x:dimension ref="A1:D17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -914,6 +917,14 @@
         <x:v>40</x:v>
       </x:c>
     </x:row>
+    <x:row r="17" spans="1:4">
+      <x:c r="C17" s="3" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
